--- a/resources/experiment 2/metrics/R2/average time/Retinopatía proliferativa.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Retinopatía proliferativa.xlsx
@@ -465,7 +465,7 @@
         <v>0.7292314838023963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7292314838023963</v>
+        <v>0.7292314838023964</v>
       </c>
       <c r="D2" t="n">
         <v>0.7292314838023963</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9413553228822803</v>
+        <v>0.9964601137075352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9413553228822803</v>
+        <v>0.9964937946425758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9413553228822803</v>
+        <v>0.9785968291125831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9975141417466435</v>
+        <v>0.9960721656778091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9975141417466435</v>
+        <v>0.9962328787497309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9975141417466435</v>
+        <v>0.9580386068868422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8421369264045219</v>
+        <v>0.9976341310443648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8421369264045219</v>
+        <v>0.9974299833969115</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8421369264045219</v>
+        <v>0.9969779540689164</v>
       </c>
     </row>
   </sheetData>
